--- a/SistemaInventario/Temporales/IMPORTACIONALICE.xlsx
+++ b/SistemaInventario/Temporales/IMPORTACIONALICE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACTUALIZACIONES\ALICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACTUALIZACIONES\LORENZO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CODIGO INTERNO</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>TERMINAL DIRECCION</t>
+  </si>
+  <si>
+    <t>probando importacion</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +442,32 @@
         <v>1031</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5236578963</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
